--- a/Data/Copia de Kisaveikkaus_2023.xlsx
+++ b/Data/Copia de Kisaveikkaus_2023.xlsx
@@ -136,7 +136,7 @@
     <t xml:space="preserve">Sveitsi</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex popp</t>
+    <t xml:space="preserve">Alex Popp</t>
   </si>
   <si>
     <t xml:space="preserve">Saksa</t>
@@ -642,7 +642,7 @@
       <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
@@ -8710,7 +8710,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.57"/>
   </cols>
@@ -9717,7 +9717,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.57"/>
   </cols>

--- a/Data/Copia de Kisaveikkaus_2023.xlsx
+++ b/Data/Copia de Kisaveikkaus_2023.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="77">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -100,9 +100,6 @@
     <t xml:space="preserve">Englanti</t>
   </si>
   <si>
-    <t xml:space="preserve">Rachel daly</t>
-  </si>
-  <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
@@ -112,7 +109,7 @@
     <t xml:space="preserve">Irlanti</t>
   </si>
   <si>
-    <t xml:space="preserve">Sam kerr</t>
+    <t xml:space="preserve">Sam Kerr</t>
   </si>
   <si>
     <t xml:space="preserve">Espanja</t>
@@ -145,13 +142,13 @@
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
-    <t xml:space="preserve">Jennifer hermoso</t>
+    <t xml:space="preserve">Jennifer Hermoso</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex morgan</t>
+    <t xml:space="preserve">Alex Morgan</t>
   </si>
   <si>
     <t xml:space="preserve">Usa</t>
@@ -639,10 +636,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
@@ -805,14 +802,14 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R6" s="20" t="s">
         <v>18</v>
@@ -832,13 +829,13 @@
         <v>45127</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="19" t="n">
         <v>3</v>
@@ -851,10 +848,10 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -862,7 +859,7 @@
       <c r="O7" s="20"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R7" s="20"/>
       <c r="S7" s="15"/>
@@ -880,13 +877,13 @@
         <v>45128</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="19" t="n">
         <v>0</v>
@@ -899,7 +896,7 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>18</v>
@@ -910,7 +907,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
@@ -928,13 +925,13 @@
         <v>45128</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="19" t="n">
         <v>1</v>
@@ -947,10 +944,10 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -976,13 +973,13 @@
         <v>45128</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="19" t="n">
         <v>2</v>
@@ -995,10 +992,10 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -1022,13 +1019,13 @@
         <v>45129</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="19" t="n">
         <v>7</v>
@@ -1041,10 +1038,10 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -1068,13 +1065,13 @@
         <v>45129</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="19" t="n">
         <v>1</v>
@@ -1116,7 +1113,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="19" t="n">
         <v>8</v>
@@ -1152,13 +1149,13 @@
         <v>45129</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="19" t="n">
         <v>1</v>
@@ -1194,13 +1191,13 @@
         <v>45130</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="19" t="n">
         <v>2</v>
@@ -1236,13 +1233,13 @@
         <v>45130</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="19" t="n">
         <v>0</v>
@@ -1278,13 +1275,13 @@
         <v>45130</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="19" t="n">
         <v>3</v>
@@ -1320,13 +1317,13 @@
         <v>45131</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="19" t="n">
         <v>1</v>
@@ -1362,13 +1359,13 @@
         <v>45131</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="19" t="n">
         <v>5</v>
@@ -1404,13 +1401,13 @@
         <v>45131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="19" t="n">
         <v>4</v>
@@ -1446,13 +1443,13 @@
         <v>45132</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="19" t="n">
         <v>1</v>
@@ -1494,7 +1491,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="19" t="n">
         <v>3</v>
@@ -1530,7 +1527,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>15</v>
@@ -1572,13 +1569,13 @@
         <v>45133</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>2</v>
@@ -1614,13 +1611,13 @@
         <v>45133</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="19" t="n">
         <v>3</v>
@@ -1656,13 +1653,13 @@
         <v>45133</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="19" t="n">
         <v>3</v>
@@ -1698,13 +1695,13 @@
         <v>45134</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="19" t="n">
         <v>3</v>
@@ -1740,13 +1737,13 @@
         <v>45134</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="19" t="n">
         <v>2</v>
@@ -1782,13 +1779,13 @@
         <v>45134</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="19" t="n">
         <v>4</v>
@@ -1824,13 +1821,13 @@
         <v>45135</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="19" t="n">
         <v>1</v>
@@ -1872,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="19" t="n">
         <v>2</v>
@@ -1908,13 +1905,13 @@
         <v>45135</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="19" t="n">
         <v>2</v>
@@ -1950,13 +1947,13 @@
         <v>45136</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="19" t="n">
         <v>1</v>
@@ -1992,13 +1989,13 @@
         <v>45136</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" s="19" t="n">
         <v>2</v>
@@ -2034,13 +2031,13 @@
         <v>45136</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" s="19" t="n">
         <v>1</v>
@@ -2076,13 +2073,13 @@
         <v>45137</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="19" t="n">
         <v>0</v>
@@ -2118,13 +2115,13 @@
         <v>45137</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="19" t="n">
         <v>3</v>
@@ -2166,7 +2163,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="19" t="n">
         <v>4</v>
@@ -2202,7 +2199,7 @@
         <v>45137</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>15</v>
@@ -2244,13 +2241,13 @@
         <v>45138</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F40" s="19" t="n">
         <v>3</v>
@@ -2286,13 +2283,13 @@
         <v>45138</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F41" s="19" t="n">
         <v>0</v>
@@ -2328,13 +2325,13 @@
         <v>45138</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F42" s="19" t="n">
         <v>1</v>
@@ -2370,13 +2367,13 @@
         <v>45138</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" s="19" t="n">
         <v>2</v>
@@ -2412,13 +2409,13 @@
         <v>45139</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" s="19" t="n">
         <v>0</v>
@@ -2454,13 +2451,13 @@
         <v>45139</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45" s="19" t="n">
         <v>3</v>
@@ -2496,13 +2493,13 @@
         <v>45139</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" s="19" t="n">
         <v>0</v>
@@ -2538,13 +2535,13 @@
         <v>45139</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" s="19" t="n">
         <v>0</v>
@@ -2580,13 +2577,13 @@
         <v>45140</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" s="19" t="n">
         <v>0</v>
@@ -2622,13 +2619,13 @@
         <v>45140</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="19" t="n">
         <v>2</v>
@@ -2664,13 +2661,13 @@
         <v>45140</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F50" s="19" t="n">
         <v>1</v>
@@ -2706,13 +2703,13 @@
         <v>45140</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F51" s="19" t="n">
         <v>1</v>
@@ -2748,13 +2745,13 @@
         <v>45141</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F52" s="19" t="n">
         <v>3</v>
@@ -2790,13 +2787,13 @@
         <v>45141</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F53" s="19" t="n">
         <v>0</v>
@@ -2866,11 +2863,11 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
@@ -2882,10 +2879,10 @@
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="22"/>
       <c r="B60" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>59</v>
       </c>
       <c r="D60" s="3"/>
       <c r="F60" s="3"/>
@@ -2896,7 +2893,7 @@
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="22"/>
       <c r="B61" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="28" t="n">
         <v>22</v>
@@ -2910,7 +2907,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="29"/>
       <c r="C62" s="24"/>
@@ -2933,7 +2930,7 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="32"/>
       <c r="D64" s="3"/>
@@ -2944,7 +2941,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="32"/>
       <c r="D65" s="3"/>
@@ -2953,7 +2950,7 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="32"/>
       <c r="D66" s="3"/>
@@ -2971,7 +2968,7 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="32"/>
       <c r="D68" s="3"/>
@@ -2980,7 +2977,7 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="32"/>
       <c r="D69" s="3"/>
@@ -2989,7 +2986,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="32"/>
       <c r="D70" s="3"/>
@@ -2998,7 +2995,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="32"/>
       <c r="D71" s="3"/>
@@ -3014,7 +3011,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="32"/>
       <c r="D73" s="3"/>
@@ -3030,7 +3027,7 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="32"/>
       <c r="D75" s="3"/>
@@ -3046,7 +3043,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="32"/>
       <c r="D77" s="3"/>
@@ -3063,7 +3060,7 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" s="32"/>
       <c r="D79" s="3"/>
@@ -3079,7 +3076,7 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B81" s="32"/>
       <c r="D81" s="3"/>
@@ -3102,12 +3099,12 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="34"/>
       <c r="D84" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E84" s="34"/>
       <c r="G84" s="3"/>
@@ -3117,7 +3114,7 @@
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
       <c r="D85" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G85" s="3"/>
       <c r="J85" s="15"/>
@@ -3134,7 +3131,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B87" s="1"/>
       <c r="D87" s="3"/>
@@ -8710,7 +8707,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.57"/>
   </cols>
@@ -9717,7 +9714,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.57"/>
   </cols>

--- a/Data/Copia de Kisaveikkaus_2023.xlsx
+++ b/Data/Copia de Kisaveikkaus_2023.xlsx
@@ -30,7 +30,7 @@
     <t xml:space="preserve">VEIKKAAJAN NIMI:</t>
   </si>
   <si>
-    <t xml:space="preserve">Suvi)</t>
+    <t xml:space="preserve">Suvi</t>
   </si>
   <si>
     <t xml:space="preserve">Puhnumero:</t>
@@ -636,10 +636,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
@@ -8707,7 +8707,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.57"/>
   </cols>
@@ -9714,7 +9714,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="8.57"/>
   </cols>
